--- a/dist/document/dest/2020/10/doctors/tqt.xlsx
+++ b/dist/document/dest/2020/10/doctors/tqt.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
-        <v>19200</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>45</v>
       </c>
-      <c r="C3" s="1">
-        <v>58950</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>48</v>
       </c>
-      <c r="C4" s="1">
-        <v>119520</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
-        <v>113700</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>61500</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
-        <v>137550</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
-        <v>15420</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>120</v>
       </c>
-      <c r="C9" s="1">
-        <v>51600</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
-        <v>123750</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>92400</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>68000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <v>12960</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>30</v>
       </c>
-      <c r="C14" s="1">
-        <v>50700</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
-        <v>353040</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
-        <v>54120</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
-        <v>44600</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>70</v>
       </c>
-      <c r="C18" s="1">
-        <v>903000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>40</v>
       </c>
-      <c r="C19" s="1">
-        <v>133400</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
-        <v>24570</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>30</v>
       </c>
-      <c r="C21" s="1">
-        <v>20700</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>60</v>
       </c>
-      <c r="C22" s="1">
-        <v>455400</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>60</v>
       </c>
-      <c r="C23" s="1">
-        <v>154200</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>180</v>
       </c>
-      <c r="C24" s="1">
-        <v>289800</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>60</v>
       </c>
-      <c r="C25" s="1">
-        <v>35400</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>15</v>
       </c>
-      <c r="C26" s="1">
-        <v>132000</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>20</v>
       </c>
-      <c r="C27" s="1">
-        <v>164560</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -691,7 +613,7 @@
         <v>971</v>
       </c>
       <c r="C28" s="1">
-        <v>3690040</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/tqt.xlsx
+++ b/dist/document/dest/2020/10/doctors/tqt.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,26 +399,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alaxan (Paracetamol, ibuprofen)</v>
+        <v>Alpha Choay (VN)</v>
       </c>
       <c r="B2" s="1">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>67230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alaxan (Paracetamol, ibuprofen)</v>
+        <v>Alpha Choay (VN)</v>
       </c>
       <c r="B3" s="1">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>37350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alpha Choay (VN)</v>
+        <v>Arcalion (Sulbutiamine 200mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>113700</v>
       </c>
     </row>
     <row r="5">
@@ -428,117 +437,162 @@
       <c r="B5" s="1">
         <v>30</v>
       </c>
+      <c r="C5" s="1">
+        <v>113700</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bar 60v/lọ</v>
+        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>114350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Brexin (Piroxicam) 20mg</v>
+        <v>Gabena (Olanzapine 10mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Buscopan (v) (hyoscine butylbromide)</v>
+        <v>Hiruscar Gel 5g</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>225400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Calci D</v>
+        <v>Locinvid (Levofloxacin 500mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>261800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Cardival (Valsartan 80mg)</v>
+        <v>Losec (Omeprazole 20mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>882600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Medrol 16mg (Methylprednisolone)</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>22550</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Clarityne (Loratadine)</v>
+        <v>Neurontin (Gabapentin 300mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>84</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1083600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Doxycyclin 100mg</v>
+        <v>Nolvadex-D(Tamoxifen 20mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2062500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Nolvadex-D(Tamoxifen 20mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>30</v>
+        <v>690</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4312500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Losec (Omeprazole 20mg)</v>
+        <v>Nolvadex-D(Tamoxifen 20mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>12</v>
+        <v>120</v>
+      </c>
+      <c r="C15" s="1">
+        <v>750000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
       </c>
       <c r="B16" s="1">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="1">
+        <v>120400</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+        <v xml:space="preserve">Oxy Già </v>
       </c>
       <c r="B17" s="1">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Neurontin (Gabapentin 300mg)</v>
+        <v>Povidine 20ml</v>
       </c>
       <c r="B18" s="1">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Spiromide (Spironolactone, Furosemide)</v>
+        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>90</v>
+      </c>
+      <c r="C19" s="1">
+        <v>22860</v>
       </c>
     </row>
     <row r="20">
@@ -548,77 +602,68 @@
       <c r="B20" s="1">
         <v>30</v>
       </c>
+      <c r="C20" s="1">
+        <v>24570</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+        <v>Sucar Suspension (Sucralfate 1g)</v>
       </c>
       <c r="B21" s="1">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>107250</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Thyrozol 10mg (Thiamazole)</v>
       </c>
       <c r="B22" s="1">
         <v>60</v>
       </c>
+      <c r="C22" s="1">
+        <v>154200</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Thyrozol 10mg (Thiamazole)</v>
+        <v>Transamin 500mg (Tranexamic)</v>
       </c>
       <c r="B23" s="1">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="1">
+        <v>66300</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Zopistad (Zopiclone 7.5mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>180</v>
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>27300</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Tragutan (Eucalpyptol, tinh dầu gừng, tinh dầu tần, menthol)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B25" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
-      </c>
-      <c r="B26" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Zyrtec 10 (Cetirizine)</v>
-      </c>
-      <c r="B27" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B28" s="1">
-        <v>971</v>
-      </c>
-      <c r="C28" s="1">
-        <v>NaN</v>
+        <v>1670</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10614260</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C25"/>
   </ignoredErrors>
 </worksheet>
 </file>